--- a/medicine/Enfance/André_Pécoud/André_Pécoud.xlsx
+++ b/medicine/Enfance/André_Pécoud/André_Pécoud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_P%C3%A9coud</t>
+          <t>André_Pécoud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Maurice Albert Pécoud (né à Paris 8e le 22 juillet 1880 et mort à Paris 17e le 28 janvier 1951[1]) est un peintre, illustrateur et affichiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Maurice Albert Pécoud (né à Paris 8e le 22 juillet 1880 et mort à Paris 17e le 28 janvier 1951) est un peintre, illustrateur et affichiste français.
 Il a essentiellement travaillé pour les Éditions Hachette de 1925 à 1951.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_P%C3%A9coud</t>
+          <t>André_Pécoud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un officier supérieur, André Pécoud commença à travailler pour la presse parisienne en 1900 (Gil Blas, numéro du 4 mai 1900). 
-Installé au 7, rue des Ternes à Paris dans les années 1920 et 1930, il fut un des illustrateurs français les plus prolifiques de son époque. En cinquante ans de carrière, il a illustré plus de 156 ouvrages[2] et des centaines de magazines, entre autres pour les luxueux Femina, Monsieur, Illustration des modes des années 1920, à La Semaine de Suzette en passant par Lectures pour tous, Fantasio, Les Annales politiques et littéraires ou Nos loisirs.
+Installé au 7, rue des Ternes à Paris dans les années 1920 et 1930, il fut un des illustrateurs français les plus prolifiques de son époque. En cinquante ans de carrière, il a illustré plus de 156 ouvrages et des centaines de magazines, entre autres pour les luxueux Femina, Monsieur, Illustration des modes des années 1920, à La Semaine de Suzette en passant par Lectures pour tous, Fantasio, Les Annales politiques et littéraires ou Nos loisirs.
 Dans l’édition, on l’associe à juste titre à la maison Hachette pour qui il fut le grand dessinateur des romans de la comtesse de Ségur, de Magdeleine du Genestoux et de toutes les collections enfantines (collections Bibliothèque rose et Bibliothèque verte, etc.) pendant un quart de siècle.
 Il travailla aussi pour les Éditions Delagrave, Henri Pierre Laurens, Gautier-Languereau, Plon, entre autres. 
 Sa ligne est rapide et joyeuse où le mouvement et le sentiment sont plus visibles que les traits des personnages. 
